--- a/targets/btc-8e-hp5/usable-functions/BTC-8E-HP5-Usable-Functions-v1.xlsx
+++ b/targets/btc-8e-hp5/usable-functions/BTC-8E-HP5-Usable-Functions-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\local_repositories\unified-btc-reverse\targets\btc-8e-hp5\usable-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCDF6E-0F2A-4DED-AAFF-9431435AE96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB821A-61A9-4544-AF97-A9C94486950C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25575" yWindow="1215" windowWidth="20865" windowHeight="9795" xr2:uid="{BFC01027-5E2B-4BAB-962F-4BA0024B257D}"/>
+    <workbookView xWindow="25290" yWindow="840" windowWidth="20865" windowHeight="10920" xr2:uid="{BFC01027-5E2B-4BAB-962F-4BA0024B257D}"/>
   </bookViews>
   <sheets>
     <sheet name="BTC-8E-HP5" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BTC-8E-HP5'!$A$1:$C$216</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="497">
   <si>
     <t xml:space="preserve"> powerOnSelfCheck</t>
   </si>
@@ -271,12 +270,6 @@
     <t xml:space="preserve"> FUN_80162334</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUN_8016e084</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FUN_8016f074</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FUN_801703bc</t>
   </si>
   <si>
@@ -316,12 +309,6 @@
     <t xml:space="preserve"> FUN_8017caf0</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUN_8017da04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FUN_8017e804</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FUN_8017f4f8</t>
   </si>
   <si>
@@ -436,9 +423,6 @@
     <t xml:space="preserve"> FUN_801e19f4</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUN_801ef294</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FUN_801f39ec</t>
   </si>
   <si>
@@ -487,15 +471,9 @@
     <t xml:space="preserve"> pbctrlCurrValidCondition</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUN_8021dc18</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FUN_8021e930</t>
   </si>
   <si>
-    <t xml:space="preserve"> FUN_8021ed84</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FUN_8021f74c</t>
   </si>
   <si>
@@ -1505,6 +1483,54 @@
   </si>
   <si>
     <t>800459b4</t>
+  </si>
+  <si>
+    <t>movRecMoovSyncBuildAtoms</t>
+  </si>
+  <si>
+    <t>mcaptureTrigSub</t>
+  </si>
+  <si>
+    <t>cap_init</t>
+  </si>
+  <si>
+    <t>0?</t>
+  </si>
+  <si>
+    <t>some jpg thing</t>
+  </si>
+  <si>
+    <t>CDSP thing</t>
+  </si>
+  <si>
+    <t>some CDSP thing</t>
+  </si>
+  <si>
+    <t>JPEG_Encode</t>
+  </si>
+  <si>
+    <t>some CSDSP thing</t>
+  </si>
+  <si>
+    <t>decodeMainVlcToMainYuv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">some LUT 3d Lookup table thing? </t>
+  </si>
+  <si>
+    <t>Definitely used</t>
+  </si>
+  <si>
+    <t>used_jfif_function</t>
+  </si>
+  <si>
+    <t>hijacked_digital_zoom_function</t>
+  </si>
+  <si>
+    <t>Looks like something to do with digital zoom?</t>
   </si>
 </sst>
 </file>
@@ -1560,9 +1586,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1600,7 +1626,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1706,7 +1732,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1848,7 +1874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1859,8 +1885,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,222 +1897,237 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>16544</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>13396</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10676</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10672</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8928</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>7900</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7496</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>7384</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>6532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>6268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>6068</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>5892</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>129</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1060</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1884</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1276</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1044</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1132</v>
+        <v>5676</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2098,12 +2139,12 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2115,26 +2156,26 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>2148</v>
+        <v>4660</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2146,26 +2187,26 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1208</v>
+        <v>4448</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2177,65 +2218,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>1028</v>
+        <v>4084</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>3376</v>
+        <v>4056</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>1340</v>
+        <v>3784</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>1252</v>
+        <v>3780</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2247,54 +2288,54 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3356</v>
+        <v>3700</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1068</v>
+        <v>3656</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>1468</v>
+        <v>3652</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2306,62 +2347,62 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>1580</v>
+        <v>3400</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2369,21 +2410,24 @@
       <c r="C36">
         <v>3304</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2391,32 +2435,35 @@
       <c r="C38">
         <v>3216</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>483</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2424,10 +2471,13 @@
       <c r="C41">
         <v>2960</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2435,43 +2485,49 @@
       <c r="C42">
         <v>2956</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>484</v>
+      </c>
+      <c r="E42" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>13396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>6532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>494</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2479,10 +2535,16 @@
       <c r="C46">
         <v>2856</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2490,32 +2552,38 @@
       <c r="C47">
         <v>2828</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>484</v>
+      </c>
+      <c r="E47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2523,21 +2591,27 @@
       <c r="C50">
         <v>2716</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>484</v>
+      </c>
+      <c r="E50" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>7228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2545,10 +2619,16 @@
       <c r="C52">
         <v>2684</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>484</v>
+      </c>
+      <c r="E52" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>495</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2556,98 +2636,104 @@
       <c r="C53">
         <v>2668</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>484</v>
+      </c>
+      <c r="E53" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>30</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>2636</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>35</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>2520</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2655,10 +2741,16 @@
       <c r="C62">
         <v>2360</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2666,32 +2758,35 @@
       <c r="C63">
         <v>2348</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2699,43 +2794,49 @@
       <c r="C66">
         <v>2252</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>484</v>
+      </c>
+      <c r="E66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>490</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2743,30 +2844,33 @@
       <c r="C70">
         <v>2196</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>6532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -2776,63 +2880,69 @@
       <c r="C73">
         <v>2124</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>491</v>
+      </c>
+      <c r="E73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>3784</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>69</v>
       </c>
@@ -2843,42 +2953,42 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -2887,31 +2997,31 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>16544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>6268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2920,42 +3030,42 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2964,9 +3074,9 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2975,9 +3085,9 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2986,20 +3096,20 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3008,42 +3118,42 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3052,7 +3162,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3063,31 +3173,31 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
       <c r="C100">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3096,9 +3206,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3107,42 +3217,42 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
       <c r="C105">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
       <c r="C106">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3151,53 +3261,53 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
       <c r="C108">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B109">
         <v>1</v>
       </c>
       <c r="C109">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
-        <v>7384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3206,31 +3316,31 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
       <c r="C113">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
       <c r="C114">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3239,31 +3349,31 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
       <c r="C116">
-        <v>10676</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3272,62 +3382,62 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
       <c r="C123">
-        <v>4084</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>59</v>
       </c>
@@ -3338,20 +3448,20 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>10672</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3360,9 +3470,9 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3371,130 +3481,130 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>5676</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
       <c r="C130">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
       <c r="C134">
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
       <c r="C136">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
       <c r="C138">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3503,42 +3613,42 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
       <c r="C140">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
       <c r="C142">
-        <v>3176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3547,29 +3657,29 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
       <c r="C144">
-        <v>7496</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
       <c r="C145">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -3580,31 +3690,31 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>37</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>165</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>172</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3613,31 +3723,31 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
       <c r="C150">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3646,9 +3756,9 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -3657,29 +3767,29 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -3690,130 +3800,130 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>180</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-      <c r="C160">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>201</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>199</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>183</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>184</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-      <c r="C162">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>185</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>186</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>188</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>189</v>
-      </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-      <c r="C167">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>190</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -3822,75 +3932,75 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>121</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>185</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
         <v>1152</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>193</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>194</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172">
-        <v>4056</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3899,75 +4009,75 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178">
-        <v>3700</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180">
-        <v>3284</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3976,42 +4086,42 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -4020,97 +4130,97 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>111</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
         <v>1068</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>207</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>206</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>204</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>50</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4119,246 +4229,246 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>147</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>118</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
         <v>1032</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>155</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>152</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>154</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208">
-        <v>8928</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216">
-        <v>2808</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C216" xr:uid="{1E5B321B-C71B-4829-A9FE-E464032683F9}">
     <filterColumn colId="1">
       <filters>
-        <filter val="1"/>
+        <filter val="0"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C216">
-      <sortCondition ref="A1:A216"/>
+      <sortCondition descending="1" ref="C1:C216"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,18 +4492,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4402,12 +4512,12 @@
         <v>1148</v>
       </c>
       <c r="E2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4416,12 +4526,12 @@
         <v>1148</v>
       </c>
       <c r="E3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4430,12 +4540,12 @@
         <v>1276</v>
       </c>
       <c r="E4" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4444,12 +4554,12 @@
         <v>1044</v>
       </c>
       <c r="E5" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4458,12 +4568,12 @@
         <v>1132</v>
       </c>
       <c r="E6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4472,15 +4582,15 @@
         <v>2148</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -4489,12 +4599,12 @@
         <v>1208</v>
       </c>
       <c r="E8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4503,12 +4613,12 @@
         <v>1028</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4517,12 +4627,12 @@
         <v>3376</v>
       </c>
       <c r="E10" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4531,12 +4641,12 @@
         <v>1340</v>
       </c>
       <c r="E11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4545,12 +4655,12 @@
         <v>1252</v>
       </c>
       <c r="E12" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4559,12 +4669,12 @@
         <v>3356</v>
       </c>
       <c r="E13" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4573,12 +4683,12 @@
         <v>1068</v>
       </c>
       <c r="E14" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4587,12 +4697,12 @@
         <v>1468</v>
       </c>
       <c r="E15" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -4601,15 +4711,15 @@
         <v>1400</v>
       </c>
       <c r="E16" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4618,15 +4728,15 @@
         <v>1884</v>
       </c>
       <c r="E17" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4637,7 +4747,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4648,7 +4758,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4659,7 +4769,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4681,7 +4791,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4692,7 +4802,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4703,7 +4813,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4714,7 +4824,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4725,7 +4835,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -4736,7 +4846,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -4747,7 +4857,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -4758,7 +4868,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4769,7 +4879,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -4780,7 +4890,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -4791,7 +4901,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -4802,7 +4912,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -4813,7 +4923,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4824,7 +4934,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4835,7 +4945,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4846,7 +4956,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4857,7 +4967,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4868,7 +4978,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4890,7 +5000,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4901,7 +5011,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4912,7 +5022,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -4923,7 +5033,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4934,7 +5044,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4945,7 +5055,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4956,7 +5066,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4967,7 +5077,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4978,7 +5088,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4989,7 +5099,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5000,7 +5110,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5011,7 +5121,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5022,7 +5132,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5033,7 +5143,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5044,7 +5154,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5055,7 +5165,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5066,7 +5176,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5088,7 +5198,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5110,7 +5220,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5121,7 +5231,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5132,7 +5242,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5143,7 +5253,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5154,7 +5264,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -5165,7 +5275,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5176,7 +5286,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -5187,7 +5297,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -5198,7 +5308,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -5209,7 +5319,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5220,7 +5330,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -5231,7 +5341,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5242,7 +5352,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5253,7 +5363,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5264,7 +5374,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5275,7 +5385,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -5286,7 +5396,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5297,7 +5407,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -5308,7 +5418,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -5319,7 +5429,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -5330,7 +5440,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -5341,7 +5451,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5352,7 +5462,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -5363,7 +5473,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -5374,7 +5484,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -5385,7 +5495,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5396,7 +5506,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -5407,7 +5517,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -5418,7 +5528,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -5429,7 +5539,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -5440,7 +5550,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -5451,7 +5561,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -5462,7 +5572,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5473,7 +5583,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5484,7 +5594,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5495,7 +5605,7 @@
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5506,7 +5616,7 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5517,7 +5627,7 @@
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5528,7 +5638,7 @@
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5539,7 +5649,7 @@
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5550,7 +5660,7 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -5561,7 +5671,7 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -5572,7 +5682,7 @@
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5594,7 +5704,7 @@
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5605,7 +5715,7 @@
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5616,7 +5726,7 @@
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5627,7 +5737,7 @@
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5638,7 +5748,7 @@
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -5649,7 +5759,7 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -5660,7 +5770,7 @@
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5671,7 +5781,7 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5682,7 +5792,7 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5693,7 +5803,7 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5704,7 +5814,7 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5715,7 +5825,7 @@
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -5726,7 +5836,7 @@
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5737,7 +5847,7 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5748,7 +5858,7 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5759,7 +5869,7 @@
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5770,7 +5880,7 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5781,7 +5891,7 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5792,7 +5902,7 @@
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -5803,7 +5913,7 @@
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5814,7 +5924,7 @@
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5825,7 +5935,7 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5836,7 +5946,7 @@
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5847,7 +5957,7 @@
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -5858,7 +5968,7 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -5869,7 +5979,7 @@
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -5880,7 +5990,7 @@
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -5891,7 +6001,7 @@
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -5902,7 +6012,7 @@
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -5913,7 +6023,7 @@
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -5924,7 +6034,7 @@
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -5935,7 +6045,7 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -5946,7 +6056,7 @@
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5957,7 +6067,7 @@
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -5968,7 +6078,7 @@
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5979,7 +6089,7 @@
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5990,7 +6100,7 @@
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -6001,7 +6111,7 @@
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -6012,7 +6122,7 @@
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -6023,7 +6133,7 @@
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -6034,7 +6144,7 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -6045,7 +6155,7 @@
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -6056,7 +6166,7 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -6067,7 +6177,7 @@
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -6078,7 +6188,7 @@
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -6089,7 +6199,7 @@
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -6100,7 +6210,7 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -6111,7 +6221,7 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -6122,7 +6232,7 @@
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -6133,7 +6243,7 @@
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -6144,7 +6254,7 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -6155,7 +6265,7 @@
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -6166,7 +6276,7 @@
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -6177,7 +6287,7 @@
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -6188,7 +6298,7 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -6199,7 +6309,7 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -6210,7 +6320,7 @@
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -6221,7 +6331,7 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -6232,7 +6342,7 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6243,7 +6353,7 @@
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -6254,7 +6364,7 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -6265,7 +6375,7 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -6276,7 +6386,7 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -6287,7 +6397,7 @@
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -6298,7 +6408,7 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -6309,7 +6419,7 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -6320,7 +6430,7 @@
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6331,7 +6441,7 @@
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -6342,7 +6452,7 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -6353,7 +6463,7 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6364,7 +6474,7 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -6375,7 +6485,7 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -6386,7 +6496,7 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -6397,7 +6507,7 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -6408,7 +6518,7 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -6419,7 +6529,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -6430,7 +6540,7 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -6441,7 +6551,7 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -6452,7 +6562,7 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -6463,7 +6573,7 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6474,7 +6584,7 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -6485,7 +6595,7 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -6496,7 +6606,7 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -6507,7 +6617,7 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -6518,7 +6628,7 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -6529,7 +6639,7 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -6540,7 +6650,7 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -6551,7 +6661,7 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -6562,7 +6672,7 @@
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -6573,7 +6683,7 @@
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -6584,7 +6694,7 @@
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -6595,7 +6705,7 @@
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -6606,7 +6716,7 @@
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -6617,7 +6727,7 @@
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -6628,7 +6738,7 @@
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -6639,7 +6749,7 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -6650,7 +6760,7 @@
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -6661,7 +6771,7 @@
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -6672,7 +6782,7 @@
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -6683,7 +6793,7 @@
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -6694,7 +6804,7 @@
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -6705,7 +6815,7 @@
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -6716,7 +6826,7 @@
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -6727,7 +6837,7 @@
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -6738,7 +6848,7 @@
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -6749,7 +6859,7 @@
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -6760,7 +6870,7 @@
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -6771,7 +6881,7 @@
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -6782,7 +6892,7 @@
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -6793,7 +6903,7 @@
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -6804,7 +6914,7 @@
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -6815,7 +6925,7 @@
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -6826,7 +6936,7 @@
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -6837,7 +6947,7 @@
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -6848,7 +6958,7 @@
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -6859,7 +6969,7 @@
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -6870,7 +6980,7 @@
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -6881,7 +6991,7 @@
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -6892,7 +7002,7 @@
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -6903,7 +7013,7 @@
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -6914,7 +7024,7 @@
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -6925,7 +7035,7 @@
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -6936,7 +7046,7 @@
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6947,7 +7057,7 @@
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -6958,7 +7068,7 @@
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -6969,7 +7079,7 @@
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -6980,7 +7090,7 @@
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -6991,7 +7101,7 @@
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -7002,7 +7112,7 @@
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -7013,7 +7123,7 @@
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -7024,7 +7134,7 @@
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -7035,7 +7145,7 @@
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -7046,7 +7156,7 @@
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -7057,7 +7167,7 @@
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -7068,7 +7178,7 @@
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -7079,7 +7189,7 @@
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -7090,7 +7200,7 @@
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -7101,7 +7211,7 @@
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -7112,7 +7222,7 @@
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -7123,7 +7233,7 @@
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -7134,7 +7244,7 @@
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -7145,7 +7255,7 @@
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -7156,7 +7266,7 @@
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -7167,7 +7277,7 @@
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -7178,7 +7288,7 @@
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -7189,7 +7299,7 @@
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -7200,7 +7310,7 @@
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -7211,7 +7321,7 @@
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -7222,7 +7332,7 @@
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -7233,7 +7343,7 @@
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -7244,7 +7354,7 @@
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -7255,7 +7365,7 @@
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -7266,7 +7376,7 @@
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -7277,7 +7387,7 @@
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -7288,7 +7398,7 @@
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -7299,7 +7409,7 @@
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -7310,7 +7420,7 @@
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -7321,7 +7431,7 @@
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -7332,7 +7442,7 @@
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -7343,7 +7453,7 @@
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -7354,7 +7464,7 @@
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -7365,7 +7475,7 @@
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -7376,7 +7486,7 @@
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -7387,7 +7497,7 @@
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -7398,7 +7508,7 @@
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -7409,7 +7519,7 @@
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -7420,7 +7530,7 @@
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -7431,7 +7541,7 @@
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -7442,7 +7552,7 @@
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -7453,7 +7563,7 @@
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -7464,7 +7574,7 @@
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C276">
         <v>1</v>
